--- a/new.xlsx
+++ b/new.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>daf</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>safadsf</t>
+          <t>fads</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cleo</t>
+          <t>Felix</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fads</t>
+          <t>Aria</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Milo</t>
+          <t>safadsf</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gia</t>
+          <t>Orion</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Hugo</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aria</t>
+          <t>Quinn</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Orion</t>
+          <t>Ezra</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>safa</t>
+          <t>fasfads</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>Piper</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>fasfads</t>
+          <t>sfsaf</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Vf</t>
+          <t>Dante</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>daf</t>
+          <t>Kai</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>fasfs</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Felix</t>
+          <t>safa</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ezra</t>
+          <t>Gia</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dante</t>
+          <t>Milo</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Jaxon</t>
+          <t>Cleo</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Axel</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sfsaf</t>
+          <t>Jaxon</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Axel</t>
+          <t>Luna</t>
         </is>
       </c>
     </row>
@@ -854,93 +854,34 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Quinn</t>
+          <t>Nova</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Seat 1</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>fasfs</t>
+          <t>Total seats: 24</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Seat 2</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Empty</t>
+          <t>Total capacity left: 0</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Seat 3</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Table 7</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Seat 4</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Total seats: 28</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Total capacity left: 3</t>
+          <t>Not assigned: Vf</t>
         </is>
       </c>
     </row>

--- a/new.xlsx
+++ b/new.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>daf</t>
+          <t>Piper</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fads</t>
+          <t>Kai</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Felix</t>
+          <t>fads</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aria</t>
+          <t>Nova</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>safadsf</t>
+          <t>safa</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Orion</t>
+          <t>Vf</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ivy</t>
+          <t>Aria</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hugo</t>
+          <t>fasfs</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Quinn</t>
+          <t>Ivy</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ezra</t>
+          <t>Felix</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>fasfads</t>
+          <t>Hugo</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Piper</t>
+          <t>Cleo</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sfsaf</t>
+          <t>Milo</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dante</t>
+          <t>Orion</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kai</t>
+          <t>daf</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>fasfs</t>
+          <t>safadsf</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>safa</t>
+          <t>Ezra</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Gia</t>
+          <t>fasfads</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Milo</t>
+          <t>Dante</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cleo</t>
+          <t>Axel</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Axel</t>
+          <t>Luna</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jaxon</t>
+          <t>sfsaf</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Luna</t>
+          <t>Jaxon</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nova</t>
+          <t>Gia</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Not assigned: Vf</t>
+          <t>Not assigned: Quinn</t>
         </is>
       </c>
     </row>
